--- a/apartmentManage/Data/contract.xlsx
+++ b/apartmentManage/Data/contract.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>ID</t>
   </si>
@@ -38,10 +38,10 @@
     <t>Tình Trạng Hợp Đồng</t>
   </si>
   <si>
-    <t>Nguyễn Văn A</t>
+    <t>Nguyen Van Hoang</t>
   </si>
   <si>
-    <t>2-2-A</t>
+    <t>5-2-A</t>
   </si>
   <si>
     <t>Cho thuê</t>
@@ -51,24 +51,6 @@
   </si>
   <si>
     <t>01/01/2025</t>
-  </si>
-  <si>
-    <t>Hết hạn</t>
-  </si>
-  <si>
-    <t>Trần Văn B</t>
-  </si>
-  <si>
-    <t>1-2-A</t>
-  </si>
-  <si>
-    <t>Mua bán</t>
-  </si>
-  <si>
-    <t>03/01/2025</t>
-  </si>
-  <si>
-    <t>03/09/2025</t>
   </si>
   <si>
     <t>Hiệu lực</t>
@@ -116,7 +98,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -168,36 +150,10 @@
         <v>12</v>
       </c>
       <c r="G2" t="n" s="0">
-        <v>1.5E7</v>
+        <v>1.2E7</v>
       </c>
       <c r="H2" t="s" s="0">
         <v>13</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="B3" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="D3" t="s" s="0">
-        <v>16</v>
-      </c>
-      <c r="E3" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="F3" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="G3" t="n" s="0">
-        <v>7000000.0</v>
-      </c>
-      <c r="H3" t="s" s="0">
-        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/apartmentManage/Data/contract.xlsx
+++ b/apartmentManage/Data/contract.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
   <si>
     <t>ID</t>
   </si>
@@ -38,22 +38,67 @@
     <t>Tình Trạng Hợp Đồng</t>
   </si>
   <si>
-    <t>Nguyen Van Hoang</t>
-  </si>
-  <si>
-    <t>5-2-A</t>
+    <t>Trần Thị B</t>
+  </si>
+  <si>
+    <t>6-3-A</t>
   </si>
   <si>
     <t>Cho thuê</t>
   </si>
   <si>
-    <t>01/01/2024</t>
+    <t>01/02/2025</t>
+  </si>
+  <si>
+    <t>01/07/2025</t>
+  </si>
+  <si>
+    <t>Hiệu lực</t>
+  </si>
+  <si>
+    <t>Lê Văn C</t>
+  </si>
+  <si>
+    <t>7-4-B</t>
   </si>
   <si>
     <t>01/01/2025</t>
   </si>
   <si>
-    <t>Hiệu lực</t>
+    <t>01/04/2025</t>
+  </si>
+  <si>
+    <t>Hết hạn</t>
+  </si>
+  <si>
+    <t>Phạm Thị D</t>
+  </si>
+  <si>
+    <t>8-5-A</t>
+  </si>
+  <si>
+    <t>01/08/2025</t>
+  </si>
+  <si>
+    <t>Hoàng Văn E</t>
+  </si>
+  <si>
+    <t>9-6-B</t>
+  </si>
+  <si>
+    <t>01/05/2025</t>
+  </si>
+  <si>
+    <t>01/09/2025</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị F</t>
+  </si>
+  <si>
+    <t>10-7-A</t>
+  </si>
+  <si>
+    <t>01/06/2024</t>
   </si>
 </sst>
 </file>
@@ -98,11 +143,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="2.9453125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="15.47265625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="7.44921875" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="14.19921875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="13.109375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="13.82421875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.34375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="20.02734375" customWidth="true" bestFit="true"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
@@ -132,7 +187,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n" s="0">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="B2" t="s" s="0">
         <v>8</v>
@@ -150,9 +205,113 @@
         <v>12</v>
       </c>
       <c r="G2" t="n" s="0">
-        <v>1.2E7</v>
+        <v>1.5E7</v>
       </c>
       <c r="H2" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="G3" t="n" s="0">
+        <v>1.0E7</v>
+      </c>
+      <c r="H3" t="s" s="0">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="F4" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G4" t="n" s="0">
+        <v>2.0E7</v>
+      </c>
+      <c r="H4" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n" s="0">
+        <v>5.0</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="F5" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="G5" t="n" s="0">
+        <v>9000000.0</v>
+      </c>
+      <c r="H5" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n" s="0">
+        <v>6.0</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="F6" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="G6" t="n" s="0">
+        <v>1.7E7</v>
+      </c>
+      <c r="H6" t="s" s="0">
         <v>13</v>
       </c>
     </row>

--- a/apartmentManage/Data/contract.xlsx
+++ b/apartmentManage/Data/contract.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="25">
   <si>
     <t>ID</t>
   </si>
@@ -62,13 +62,7 @@
     <t>7-4-B</t>
   </si>
   <si>
-    <t>01/01/2025</t>
-  </si>
-  <si>
-    <t>01/04/2025</t>
-  </si>
-  <si>
-    <t>Hết hạn</t>
+    <t>01/09/2025</t>
   </si>
   <si>
     <t>Phạm Thị D</t>
@@ -86,19 +80,13 @@
     <t>9-6-B</t>
   </si>
   <si>
-    <t>01/05/2025</t>
-  </si>
-  <si>
-    <t>01/09/2025</t>
-  </si>
-  <si>
     <t>Nguyễn Thị F</t>
   </si>
   <si>
     <t>10-7-A</t>
   </si>
   <si>
-    <t>01/06/2024</t>
+    <t>01/03/2024</t>
   </si>
 </sst>
 </file>
@@ -225,16 +213,16 @@
         <v>10</v>
       </c>
       <c r="E3" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s" s="0">
         <v>16</v>
-      </c>
-      <c r="F3" t="s" s="0">
-        <v>17</v>
       </c>
       <c r="G3" t="n" s="0">
         <v>1.0E7</v>
       </c>
       <c r="H3" t="s" s="0">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4">
@@ -242,19 +230,19 @@
         <v>4.0</v>
       </c>
       <c r="B4" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s" s="0">
         <v>19</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>20</v>
-      </c>
-      <c r="D4" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="F4" t="s" s="0">
-        <v>21</v>
       </c>
       <c r="G4" t="n" s="0">
         <v>2.0E7</v>
@@ -268,19 +256,19 @@
         <v>5.0</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s" s="0">
         <v>10</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s" s="0">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="G5" t="n" s="0">
         <v>9000000.0</v>
@@ -294,19 +282,19 @@
         <v>6.0</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s" s="0">
         <v>10</v>
       </c>
       <c r="E6" t="s" s="0">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F6" t="s" s="0">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="G6" t="n" s="0">
         <v>1.7E7</v>

--- a/apartmentManage/Data/contract.xlsx
+++ b/apartmentManage/Data/contract.xlsx
@@ -6,36 +6,36 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Contracts" r:id="rId3" sheetId="1"/>
+    <sheet name="New Sheet" r:id="rId3" sheetId="1"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="37">
   <si>
     <t>ID</t>
   </si>
   <si>
-    <t>Tên Chủ Sở Hữu</t>
-  </si>
-  <si>
-    <t>Căn Hộ</t>
-  </si>
-  <si>
-    <t>Loại Hợp Đồng</t>
-  </si>
-  <si>
-    <t>Ngày Bắt Đầu</t>
-  </si>
-  <si>
-    <t>Ngày Kết Thúc</t>
-  </si>
-  <si>
-    <t>Giá Trị Hợp Đồng</t>
-  </si>
-  <si>
-    <t>Tình Trạng Hợp Đồng</t>
+    <t>Tên chủ hộ</t>
+  </si>
+  <si>
+    <t>Căn hộ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loại </t>
+  </si>
+  <si>
+    <t>Ngày bắt đầu</t>
+  </si>
+  <si>
+    <t>Ngày kết thúc</t>
+  </si>
+  <si>
+    <t>Giá trị hợp đồng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tình trạng </t>
   </si>
   <si>
     <t>Trần Thị B</t>
@@ -47,12 +47,15 @@
     <t>Cho thuê</t>
   </si>
   <si>
-    <t>01/02/2025</t>
+    <t>01/01/2025</t>
   </si>
   <si>
     <t>01/07/2025</t>
   </si>
   <si>
+    <t>0</t>
+  </si>
+  <si>
     <t>Hiệu lực</t>
   </si>
   <si>
@@ -86,7 +89,40 @@
     <t>10-7-A</t>
   </si>
   <si>
-    <t>01/03/2024</t>
+    <t>Trần Văn A</t>
+  </si>
+  <si>
+    <t>8-3-B</t>
+  </si>
+  <si>
+    <t>Mua bán</t>
+  </si>
+  <si>
+    <t>01/01/2085</t>
+  </si>
+  <si>
+    <t>Lê Thị Z</t>
+  </si>
+  <si>
+    <t>5-4-C</t>
+  </si>
+  <si>
+    <t>Phạm Văn T</t>
+  </si>
+  <si>
+    <t>8-5-B</t>
+  </si>
+  <si>
+    <t>Bùi Văn E</t>
+  </si>
+  <si>
+    <t>9-2-C</t>
+  </si>
+  <si>
+    <t>Huỳnh Thị F</t>
+  </si>
+  <si>
+    <t>10-3-A</t>
   </si>
 </sst>
 </file>
@@ -131,20 +167,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="2.9453125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="15.47265625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="7.44921875" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="14.19921875" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="13.109375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="13.82421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.34375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="20.02734375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="3.26953125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="12.6328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="7.234375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="9.16796875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="12.90625" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="13.34765625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="15.6328125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="10.671875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -175,7 +211,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n" s="0">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="B2" t="s" s="0">
         <v>8</v>
@@ -192,22 +228,22 @@
       <c r="F2" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="G2" t="n" s="0">
-        <v>1.5E7</v>
+      <c r="G2" t="s" s="0">
+        <v>13</v>
       </c>
       <c r="H2" t="s" s="0">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n" s="0">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s" s="0">
         <v>10</v>
@@ -216,24 +252,24 @@
         <v>11</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>16</v>
-      </c>
-      <c r="G3" t="n" s="0">
-        <v>1.0E7</v>
+        <v>17</v>
+      </c>
+      <c r="G3" t="s" s="0">
+        <v>13</v>
       </c>
       <c r="H3" t="s" s="0">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n" s="0">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s" s="0">
         <v>10</v>
@@ -242,24 +278,24 @@
         <v>11</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>19</v>
-      </c>
-      <c r="G4" t="n" s="0">
-        <v>2.0E7</v>
+        <v>20</v>
+      </c>
+      <c r="G4" t="s" s="0">
+        <v>13</v>
       </c>
       <c r="H4" t="s" s="0">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n" s="0">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s" s="0">
         <v>10</v>
@@ -268,39 +304,169 @@
         <v>11</v>
       </c>
       <c r="F5" t="s" s="0">
-        <v>16</v>
-      </c>
-      <c r="G5" t="n" s="0">
-        <v>9000000.0</v>
+        <v>17</v>
+      </c>
+      <c r="G5" t="s" s="0">
+        <v>13</v>
       </c>
       <c r="H5" t="s" s="0">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n" s="0">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s" s="0">
         <v>10</v>
       </c>
       <c r="E6" t="s" s="0">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s" s="0">
-        <v>16</v>
-      </c>
-      <c r="G6" t="n" s="0">
-        <v>1.7E7</v>
+        <v>17</v>
+      </c>
+      <c r="G6" t="s" s="0">
+        <v>13</v>
       </c>
       <c r="H6" t="s" s="0">
-        <v>13</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n" s="0">
+        <v>6.0</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="E7" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="F7" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="G7" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="H7" t="s" s="0">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n" s="0">
+        <v>7.0</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="D8" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="E8" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="F8" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="G8" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="H8" t="s" s="0">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D9" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="E9" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="F9" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="G9" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="H9" t="s" s="0">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="D10" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="E10" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="F10" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="G10" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="H10" t="s" s="0">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="D11" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="E11" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="F11" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="G11" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="H11" t="s" s="0">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
